--- a/data/trans_camb/P44-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P44-Dificultad-trans_camb.xlsx
@@ -624,7 +624,7 @@
         <v>0.07613957715600916</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>21.66638165672757</v>
+        <v>21.66638165672758</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.187897947244252</v>
+        <v>-0.9643142837884996</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>14.55369948617406</v>
+        <v>15.14744099027218</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.784201815749086</v>
+        <v>-5.283109824706109</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17.46791380558872</v>
+        <v>17.01607783118154</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.579563004455878</v>
+        <v>-2.454895728484899</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>17.94806104954446</v>
+        <v>17.92993228072294</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.272659275989252</v>
+        <v>6.623595047851016</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>27.15014817751083</v>
+        <v>27.87690781621021</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.045929032042137</v>
+        <v>1.146920593840502</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27.11220337620762</v>
+        <v>26.95265407698591</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.591963028222737</v>
+        <v>2.563908707816332</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>25.4817761485368</v>
+        <v>25.57725420582906</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>0.4145111463405223</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>3.125559584603245</v>
+        <v>3.125559584603244</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.2585433566554032</v>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1512762588874917</v>
+        <v>-0.126400965138962</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>1.655216839575469</v>
+        <v>1.641950290988387</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5491296949248988</v>
+        <v>-0.5485002185114468</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>1.795298432479412</v>
+        <v>1.711259664711796</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2973161004082251</v>
+        <v>-0.2716629675911632</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>2.03019755915575</v>
+        <v>1.965070208228785</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.276244499144296</v>
+        <v>1.382326451060887</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.782932225496826</v>
+        <v>5.555582773830678</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.199413831661794</v>
+        <v>0.2218635890039438</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>4.529510452199183</v>
+        <v>4.4297333356904</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.426928116544783</v>
+        <v>0.4237675218986238</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.234688336599617</v>
+        <v>4.119451902929274</v>
       </c>
     </row>
     <row r="10">
@@ -772,7 +772,7 @@
         <v>0.4051937121257398</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>23.9793282139769</v>
+        <v>23.97932821397691</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.5589954983572578</v>
@@ -784,7 +784,7 @@
         <v>0.5744842470340322</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>22.0651414576318</v>
+        <v>22.06514145763181</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.905015459635003</v>
+        <v>-4.761614465547154</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>17.75043393828332</v>
+        <v>18.03045272122077</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.17052261163817</v>
+        <v>-2.92479533900492</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16.57523450162953</v>
+        <v>16.82293849695838</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.649718722629891</v>
+        <v>-2.457040162336919</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.5790247413293</v>
+        <v>18.51153411445888</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.177767192723342</v>
+        <v>5.636931003726439</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>29.42351284103271</v>
+        <v>29.74738998294593</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.164320677029783</v>
+        <v>4.204331633484674</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>24.32347564478436</v>
+        <v>24.06192102642246</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.432207436877693</v>
+        <v>3.531483873424953</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>25.36577969837811</v>
+        <v>25.22545260746892</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3448637036672159</v>
+        <v>-0.345567480695495</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1.199126049764944</v>
+        <v>1.131839816501513</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3538483249454684</v>
+        <v>-0.3416585700012257</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1.694484308035425</v>
+        <v>1.832706262280424</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2561300218268096</v>
+        <v>-0.2392330541754718</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.727933799612706</v>
+        <v>1.74870561588947</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.676116495099262</v>
+        <v>0.7462756171246178</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.693603313106814</v>
+        <v>3.737790724544118</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7794744162633686</v>
+        <v>0.8095210108710476</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>4.767666833235494</v>
+        <v>4.667205128771325</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4897782364275535</v>
+        <v>0.5149765776981471</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.759014738749801</v>
+        <v>3.66712148643653</v>
       </c>
     </row>
     <row r="16">
@@ -938,13 +938,13 @@
         <v>2.403259108906845</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24.33164509254145</v>
+        <v>24.33164509254146</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>2.682482176379336</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>26.30370307144865</v>
+        <v>26.30370307144866</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.471467053371312</v>
+        <v>-1.756359828551798</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>22.69542791484885</v>
+        <v>22.66621845094414</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.703829709122538</v>
+        <v>-1.376553421230896</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20.02333607542806</v>
+        <v>19.82627514150725</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.2934487478808226</v>
+        <v>-0.4815175703313761</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>23.28252516742463</v>
+        <v>22.94904836864053</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.782604986749295</v>
+        <v>7.526670831059795</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>32.67864092183454</v>
+        <v>33.33792733653248</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.727539954717801</v>
+        <v>6.873363255785185</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>28.0818601080426</v>
+        <v>28.05271776922648</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.716714392315462</v>
+        <v>5.749426731567228</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>29.74513424639948</v>
+        <v>29.71972275025745</v>
       </c>
     </row>
     <row r="19">
@@ -1016,7 +1016,7 @@
         <v>0.3819910349120934</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>3.867444111859159</v>
+        <v>3.86744411185916</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3586186057908565</v>
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1404424280913994</v>
+        <v>-0.2026358824095266</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>1.853867814568958</v>
+        <v>1.954599403207768</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.244913174354685</v>
+        <v>-0.2092027800322573</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>2.204350441677528</v>
+        <v>2.121190018430429</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.03865016712714939</v>
+        <v>-0.05543730482530954</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>2.439670219701439</v>
+        <v>2.466105580746031</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.271796280700445</v>
+        <v>1.163965859193609</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>4.960164939270025</v>
+        <v>5.415868281173995</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.499315051110782</v>
+        <v>1.492894119221437</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>6.549869634876962</v>
+        <v>6.418170981120711</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9280518044801692</v>
+        <v>0.9457386063239532</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>5.042231957581396</v>
+        <v>5.260872320348573</v>
       </c>
     </row>
     <row r="22">
@@ -1092,7 +1092,7 @@
         <v>3.033676600363411</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>26.9474332758072</v>
+        <v>26.94743327580721</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>-0.3038263221407961</v>
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.222685766614617</v>
+        <v>-5.620826860389086</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>18.04758976239252</v>
+        <v>18.43914284904487</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.032508645875675</v>
+        <v>-6.93333130600631</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17.06339325314993</v>
+        <v>17.33185064065826</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.569450645963288</v>
+        <v>-3.932142823498772</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>20.56161428825437</v>
+        <v>20.0909323857062</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.81937046635602</v>
+        <v>11.50752015711561</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>34.05577194331466</v>
+        <v>34.17731345725489</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.464016976431577</v>
+        <v>6.913347744701757</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>29.03551894005647</v>
+        <v>28.97475961382301</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.358717860301341</v>
+        <v>7.184599714035582</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>29.92745933454815</v>
+        <v>29.6944010602076</v>
       </c>
     </row>
     <row r="25">
@@ -1170,7 +1170,7 @@
         <v>0.2075320164587641</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>1.843457923447191</v>
+        <v>1.843457923447192</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.02974301308887901</v>
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3247151915612089</v>
+        <v>-0.2920038836781907</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.8315367986299254</v>
+        <v>0.8549557977333404</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5228386709127426</v>
+        <v>-0.5161113948029896</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1.077787106256836</v>
+        <v>1.145128788041438</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2364452496916579</v>
+        <v>-0.2578945148556742</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.237347629952008</v>
+        <v>1.14332411691213</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.017261480818865</v>
+        <v>1.128097912869404</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.752303923910502</v>
+        <v>3.617052639501529</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9749801517698065</v>
+        <v>1.114244616735599</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>4.535106520874282</v>
+        <v>4.649407602857236</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7699285773568977</v>
+        <v>0.7750735891872819</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.372135040372854</v>
+        <v>3.256903517731978</v>
       </c>
     </row>
     <row r="28">
@@ -1258,13 +1258,13 @@
         <v>-0.03446284803097499</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>22.81277400738862</v>
+        <v>22.81277400738861</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>1.036960935954727</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>24.73515006284581</v>
+        <v>24.7351500628458</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.3666276501776023</v>
+        <v>-0.5332171503895661</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>23.71035534390387</v>
+        <v>24.05062111142106</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.037650958875112</v>
+        <v>-2.020180451637922</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>20.5204397215311</v>
+        <v>20.61335150697891</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.6246020520485431</v>
+        <v>-0.7285145111926863</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>22.65192895466816</v>
+        <v>23.01938120192376</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.895690298741513</v>
+        <v>4.548780425008412</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>29.6003508638669</v>
+        <v>29.61895156912496</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.895825928039703</v>
+        <v>1.87473911658829</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>25.20713063182474</v>
+        <v>25.0894840674047</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.648814664481028</v>
+        <v>2.652902024844787</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>26.37876561343485</v>
+        <v>26.66405875158545</v>
       </c>
     </row>
     <row r="31">
@@ -1336,7 +1336,7 @@
         <v>-0.004564705034362216</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>3.021618650487032</v>
+        <v>3.021618650487031</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.122404339056546</v>
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.04077017449831629</v>
+        <v>-0.04743911138800122</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>2.096106671944353</v>
+        <v>2.14221726730437</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2403479323780793</v>
+        <v>-0.2365053275381818</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>2.334170008858906</v>
+        <v>2.302960020686851</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.06854731182411279</v>
+        <v>-0.07644457816097058</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>2.399931902267372</v>
+        <v>2.427413652614575</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6086842262204882</v>
+        <v>0.5381134149465784</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>3.677165043092641</v>
+        <v>3.665573544428661</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2858011734438712</v>
+        <v>0.282169195906439</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>4.055360106355831</v>
+        <v>3.841195923363581</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3472912471841686</v>
+        <v>0.3510217535364896</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>3.559658955165348</v>
+        <v>3.573453995024583</v>
       </c>
     </row>
     <row r="34">
